--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4313.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4313.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4313</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sharafuddin Ashraf</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Left Arm Orthodox</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +820,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -808,7 +872,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -860,7 +924,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -912,7 +976,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -964,7 +1028,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1016,7 +1080,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1064,7 +1128,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1112,7 +1176,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1160,7 +1224,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1208,7 +1272,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1260,7 +1324,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1308,7 +1372,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1360,7 +1424,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1408,7 +1472,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1447,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1533,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1506,7 +1570,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3649</t>
+          <t>3649</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1543,7 +1607,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3650</t>
+          <t>3650</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1580,7 +1644,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3651</t>
+          <t>3651</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1617,7 +1681,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3652</t>
+          <t>3652</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1654,7 +1718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3707</t>
+          <t>3707</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1691,7 +1755,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4134</t>
+          <t>4134</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1728,7 +1792,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4136</t>
+          <t>4136</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1765,7 +1829,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4140</t>
+          <t>4140</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1802,7 +1866,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4145</t>
+          <t>4145</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1839,7 +1903,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4147</t>
+          <t>4147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1876,7 +1940,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4154</t>
+          <t>4154</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1913,7 +1977,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4160</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1950,7 +2014,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4163</t>
+          <t>4163</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1987,7 +2051,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4164</t>
+          <t>4164</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2024,7 +2088,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4290</t>
+          <t>4290</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2061,7 +2125,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4378</t>
+          <t>4378</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2098,7 +2162,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4379</t>
+          <t>4379</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2135,7 +2199,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4525</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2172,7 +2236,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4528</t>
+          <t>4528</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4313.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4313.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/bin/sheets/main_db/teams/AFG/PlayerPerformance_4313.xlsx
+++ b/bin/sheets/main_db/teams/AFG/PlayerPerformance_4313.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -608,7 +610,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>20/07/2014</t>
@@ -812,7 +813,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>16/02/2018</t>
@@ -1120,7 +1120,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>20/03/2018</t>
@@ -1168,7 +1167,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>23/03/2018</t>
@@ -1216,7 +1214,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>25/03/2018</t>
@@ -1264,7 +1261,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>10/05/2019</t>
@@ -1364,7 +1360,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>11/11/2019</t>
@@ -1464,7 +1459,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>23/01/2022</t>
@@ -2268,4 +2262,679 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>8.71%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.35%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>6.50%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3649</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3650</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3651</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3652</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3707</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4134</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4136</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4140</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4145</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4147</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4154</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4160</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4163</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4290</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4378</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4379</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4525</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4528</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>